--- a/simulation_data/two_step_algorithm/2s_error_level_8_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_8_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.55623823170603</v>
+        <v>92.73248691668407</v>
       </c>
       <c r="D2" t="n">
-        <v>14.88163689609459</v>
+        <v>13.06609188757656</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>94.78337078708125</v>
+        <v>90.26634334093107</v>
       </c>
       <c r="D3" t="n">
-        <v>15.94758017095749</v>
+        <v>14.31369966628535</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.69281618955614</v>
+        <v>90.75051386955893</v>
       </c>
       <c r="D4" t="n">
-        <v>14.80189216690983</v>
+        <v>13.19529200888486</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.68550515656885</v>
+        <v>89.02443436006764</v>
       </c>
       <c r="D5" t="n">
-        <v>16.34263580437219</v>
+        <v>14.63874830841023</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.01805889563556</v>
+        <v>88.27524994678981</v>
       </c>
       <c r="D6" t="n">
-        <v>13.80824153799027</v>
+        <v>13.53933436360785</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>89.44125067232343</v>
+        <v>88.60537831309303</v>
       </c>
       <c r="D7" t="n">
-        <v>15.44682229200758</v>
+        <v>12.39606356319226</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.53364187623161</v>
+        <v>84.13521992890433</v>
       </c>
       <c r="D8" t="n">
-        <v>16.63357182195704</v>
+        <v>14.41973548459509</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.69011273989186</v>
+        <v>83.13710339546179</v>
       </c>
       <c r="D9" t="n">
-        <v>14.30091314654543</v>
+        <v>13.15568674455889</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.65992432250049</v>
+        <v>82.15909170284534</v>
       </c>
       <c r="D10" t="n">
-        <v>14.79242626576351</v>
+        <v>14.70109178548154</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.09713359476116</v>
+        <v>83.68047560065671</v>
       </c>
       <c r="D11" t="n">
-        <v>16.17999275991227</v>
+        <v>15.22199854964358</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.88849717504621</v>
+        <v>80.65095836650821</v>
       </c>
       <c r="D12" t="n">
-        <v>15.36498191412455</v>
+        <v>14.36720768301887</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.55580474354626</v>
+        <v>81.20735253361794</v>
       </c>
       <c r="D13" t="n">
-        <v>13.90097667260352</v>
+        <v>16.84747011132094</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.86039532190681</v>
+        <v>79.27284818344607</v>
       </c>
       <c r="D14" t="n">
-        <v>14.69672784227985</v>
+        <v>13.066388914352</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.98247083904697</v>
+        <v>76.39479664354396</v>
       </c>
       <c r="D15" t="n">
-        <v>15.40538711806466</v>
+        <v>15.87265253570258</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.51813259719357</v>
+        <v>76.82394554947621</v>
       </c>
       <c r="D16" t="n">
-        <v>16.51836438272703</v>
+        <v>15.74111426061474</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.82891196133578</v>
+        <v>79.68274799083959</v>
       </c>
       <c r="D17" t="n">
-        <v>13.85310386631683</v>
+        <v>14.29462973245841</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.70500829438072</v>
+        <v>74.8513562487136</v>
       </c>
       <c r="D18" t="n">
-        <v>16.53581913772933</v>
+        <v>13.00378405466201</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.12169896048231</v>
+        <v>73.52237614976437</v>
       </c>
       <c r="D19" t="n">
-        <v>13.8670548230598</v>
+        <v>13.54736733434532</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.35085286972043</v>
+        <v>74.81713221888612</v>
       </c>
       <c r="D20" t="n">
-        <v>14.97506101214245</v>
+        <v>12.27674382148451</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.51943926862053</v>
+        <v>73.71859614884933</v>
       </c>
       <c r="D21" t="n">
-        <v>15.56654236705603</v>
+        <v>14.10488470936681</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.02761419829271</v>
+        <v>73.89463049999588</v>
       </c>
       <c r="D22" t="n">
-        <v>16.89153558402509</v>
+        <v>14.22575029074673</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.6026891186406</v>
+        <v>69.28098272918875</v>
       </c>
       <c r="D23" t="n">
-        <v>15.46416099553293</v>
+        <v>14.05766094503885</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.75588305737426</v>
+        <v>67.22179832875186</v>
       </c>
       <c r="D24" t="n">
-        <v>15.35304672948184</v>
+        <v>13.95031331791128</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.66613548147056</v>
+        <v>70.11887236035903</v>
       </c>
       <c r="D25" t="n">
-        <v>16.20124686117675</v>
+        <v>13.76120510965128</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>68.74600931619702</v>
+        <v>67.62210496013003</v>
       </c>
       <c r="D26" t="n">
-        <v>17.03401709383616</v>
+        <v>13.84021498632507</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.54687115439484</v>
+        <v>64.73070314330779</v>
       </c>
       <c r="D27" t="n">
-        <v>16.39534780048755</v>
+        <v>15.67428454057736</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.94905802488577</v>
+        <v>66.24706956567688</v>
       </c>
       <c r="D28" t="n">
-        <v>16.34191918538669</v>
+        <v>14.08491643885448</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>66.81461885381114</v>
+        <v>65.36671987686283</v>
       </c>
       <c r="D29" t="n">
-        <v>16.07385882565709</v>
+        <v>15.41691183262539</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.77120228699962</v>
+        <v>64.31142170574357</v>
       </c>
       <c r="D30" t="n">
-        <v>15.15815183424994</v>
+        <v>13.81654896261185</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.56693199903187</v>
+        <v>59.77963203934759</v>
       </c>
       <c r="D31" t="n">
-        <v>14.61103925010484</v>
+        <v>14.90356863146031</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.56643125803842</v>
+        <v>62.07686113375456</v>
       </c>
       <c r="D32" t="n">
-        <v>14.40638394908541</v>
+        <v>13.961209872697</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.02683784264043</v>
+        <v>60.12077665131402</v>
       </c>
       <c r="D33" t="n">
-        <v>15.25244010230725</v>
+        <v>14.61306012414361</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.1894537166482</v>
+        <v>58.06389082076918</v>
       </c>
       <c r="D34" t="n">
-        <v>16.76459688507844</v>
+        <v>14.14797825322765</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.97620536704714</v>
+        <v>54.98998597885455</v>
       </c>
       <c r="D35" t="n">
-        <v>15.1422362777411</v>
+        <v>14.30882489843988</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>59.2288772229044</v>
+        <v>55.93233839871635</v>
       </c>
       <c r="D36" t="n">
-        <v>16.96448833926449</v>
+        <v>14.04567454764867</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.41297428626103</v>
+        <v>55.42625687179154</v>
       </c>
       <c r="D37" t="n">
-        <v>14.69448346811334</v>
+        <v>14.42001813190584</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.66528033689001</v>
+        <v>54.99064056154026</v>
       </c>
       <c r="D38" t="n">
-        <v>15.30434232138777</v>
+        <v>13.98651282812217</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.89799953901602</v>
+        <v>54.59513867791556</v>
       </c>
       <c r="D39" t="n">
-        <v>15.74729173506697</v>
+        <v>14.36415644887465</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.33519989341924</v>
+        <v>52.87827482170699</v>
       </c>
       <c r="D40" t="n">
-        <v>13.26190217495309</v>
+        <v>13.24006378057537</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.55503942129326</v>
+        <v>52.06779897000083</v>
       </c>
       <c r="D41" t="n">
-        <v>16.08756021500599</v>
+        <v>15.62729245162131</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.73946791304928</v>
+        <v>50.60835934257904</v>
       </c>
       <c r="D42" t="n">
-        <v>15.63588439539747</v>
+        <v>15.14060298622337</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>51.05131958697972</v>
+        <v>48.73812087762884</v>
       </c>
       <c r="D43" t="n">
-        <v>14.39344187731949</v>
+        <v>16.10897596688621</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.95441011275277</v>
+        <v>46.83187977941137</v>
       </c>
       <c r="D44" t="n">
-        <v>14.37239184443325</v>
+        <v>13.84736716921206</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>50.44765554598656</v>
+        <v>48.04959989453541</v>
       </c>
       <c r="D45" t="n">
-        <v>15.57158907678423</v>
+        <v>15.00127858018123</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.36861438417559</v>
+        <v>45.38733850440026</v>
       </c>
       <c r="D46" t="n">
-        <v>13.82745720029873</v>
+        <v>15.43530771548657</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>49.64216562560186</v>
+        <v>43.79993186685446</v>
       </c>
       <c r="D47" t="n">
-        <v>14.78989285999985</v>
+        <v>15.64477931386304</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>48.14371324891958</v>
+        <v>46.48421943152844</v>
       </c>
       <c r="D48" t="n">
-        <v>16.18275539243861</v>
+        <v>14.00504526718409</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.79643408623929</v>
+        <v>42.56094474185389</v>
       </c>
       <c r="D49" t="n">
-        <v>16.28332502176413</v>
+        <v>12.62748123370008</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.71014603435297</v>
+        <v>39.12784353576168</v>
       </c>
       <c r="D50" t="n">
-        <v>14.10637520266931</v>
+        <v>16.51242557792551</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.36670927062415</v>
+        <v>40.10620387085334</v>
       </c>
       <c r="D51" t="n">
-        <v>12.8459094868819</v>
+        <v>15.74880787409807</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.41282550138606</v>
+        <v>40.88808990504563</v>
       </c>
       <c r="D52" t="n">
-        <v>15.38478468398461</v>
+        <v>14.57915505167021</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.89228646754547</v>
+        <v>40.14421255767049</v>
       </c>
       <c r="D53" t="n">
-        <v>15.26026458660528</v>
+        <v>15.44102617499385</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>35.60443295591581</v>
+        <v>38.22603866781777</v>
       </c>
       <c r="D54" t="n">
-        <v>15.58364196957139</v>
+        <v>14.20445663732099</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>34.60057601439115</v>
+        <v>37.14100390355061</v>
       </c>
       <c r="D55" t="n">
-        <v>15.44736308221154</v>
+        <v>16.57971006501011</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.56695593539897</v>
+        <v>36.47994426159997</v>
       </c>
       <c r="D56" t="n">
-        <v>15.17996171847212</v>
+        <v>15.24350127400449</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.86444976483451</v>
+        <v>33.53708603979509</v>
       </c>
       <c r="D57" t="n">
-        <v>13.90483368698168</v>
+        <v>14.44195861441878</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.02205434649558</v>
+        <v>36.6413223722275</v>
       </c>
       <c r="D58" t="n">
-        <v>14.7952337081213</v>
+        <v>14.76181298198719</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.26129175816451</v>
+        <v>31.66632752090001</v>
       </c>
       <c r="D59" t="n">
-        <v>14.80482896525718</v>
+        <v>13.40686414293694</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.7222689883594</v>
+        <v>36.54256402493233</v>
       </c>
       <c r="D60" t="n">
-        <v>15.11738434204189</v>
+        <v>15.76222823144622</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>33.79005511581103</v>
+        <v>31.4225772240065</v>
       </c>
       <c r="D61" t="n">
-        <v>14.92688758968073</v>
+        <v>14.92692101419535</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.05044503034775</v>
+        <v>31.69149448484181</v>
       </c>
       <c r="D62" t="n">
-        <v>14.9723107025829</v>
+        <v>13.63424358970222</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.702275520288</v>
+        <v>31.28737442439416</v>
       </c>
       <c r="D63" t="n">
-        <v>15.52328054747599</v>
+        <v>15.91278505034656</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.1057575252417</v>
+        <v>30.72646001426229</v>
       </c>
       <c r="D64" t="n">
-        <v>13.43991327711493</v>
+        <v>13.57355513082616</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.4879536876754</v>
+        <v>26.74457690610824</v>
       </c>
       <c r="D65" t="n">
-        <v>14.98600728556732</v>
+        <v>15.19776731199344</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.50567277311596</v>
+        <v>27.93684598211231</v>
       </c>
       <c r="D66" t="n">
-        <v>14.18568893132092</v>
+        <v>13.93330549671133</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.43853367472099</v>
+        <v>23.12082142753256</v>
       </c>
       <c r="D67" t="n">
-        <v>15.03975151886302</v>
+        <v>14.9270314246111</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.9375211851174</v>
+        <v>25.03704228246724</v>
       </c>
       <c r="D68" t="n">
-        <v>15.06702730607029</v>
+        <v>11.39527579076198</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.5161247529301</v>
+        <v>21.67641114360798</v>
       </c>
       <c r="D69" t="n">
-        <v>15.62807398409536</v>
+        <v>13.84417840543593</v>
       </c>
     </row>
   </sheetData>
